--- a/scripts/test_results/export_pos_data.xlsx
+++ b/scripts/test_results/export_pos_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,2202 +452,1784 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27.2</v>
+        <v>-1.69</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.91</v>
+        <v>-1.46</v>
       </c>
       <c r="C2" t="n">
-        <v>-101.83</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27.2</v>
+        <v>-1.69</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.91</v>
+        <v>-1.46</v>
       </c>
       <c r="C3" t="n">
-        <v>-101.83</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27.2</v>
+        <v>-1.69</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.91</v>
+        <v>-1.46</v>
       </c>
       <c r="C4" t="n">
-        <v>-101.83</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27.2</v>
+        <v>-1.69</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.91</v>
+        <v>-1.46</v>
       </c>
       <c r="C5" t="n">
-        <v>-101.83</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>26.69</v>
+        <v>-1.69</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.6</v>
+        <v>-1.46</v>
       </c>
       <c r="C6" t="n">
-        <v>-101.9</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22.5</v>
+        <v>-1.69</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.05</v>
+        <v>-1.46</v>
       </c>
       <c r="C7" t="n">
-        <v>-101.42</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.33</v>
+        <v>-1.69</v>
       </c>
       <c r="B8" t="n">
-        <v>0.66</v>
+        <v>-1.46</v>
       </c>
       <c r="C8" t="n">
-        <v>-99.72</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>18.33</v>
+        <v>-1.69</v>
       </c>
       <c r="B9" t="n">
-        <v>0.66</v>
+        <v>-1.46</v>
       </c>
       <c r="C9" t="n">
-        <v>-99.72</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16.07</v>
+        <v>-1.69</v>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>-1.46</v>
       </c>
       <c r="C10" t="n">
-        <v>-97.23</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.67</v>
+        <v>-1.69</v>
       </c>
       <c r="B11" t="n">
-        <v>1.56</v>
+        <v>-1.46</v>
       </c>
       <c r="C11" t="n">
-        <v>-95.67</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.83</v>
+        <v>-1.69</v>
       </c>
       <c r="B12" t="n">
-        <v>1.56</v>
+        <v>-1.46</v>
       </c>
       <c r="C12" t="n">
-        <v>-94.11</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.51</v>
+        <v>-1.69</v>
       </c>
       <c r="B13" t="n">
-        <v>1.29</v>
+        <v>-1.46</v>
       </c>
       <c r="C13" t="n">
-        <v>-92.73</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.51</v>
+        <v>-1.69</v>
       </c>
       <c r="B14" t="n">
-        <v>1.29</v>
+        <v>-1.46</v>
       </c>
       <c r="C14" t="n">
-        <v>-92.73</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.7</v>
+        <v>-1.69</v>
       </c>
       <c r="B15" t="n">
-        <v>0.77</v>
+        <v>-1.46</v>
       </c>
       <c r="C15" t="n">
-        <v>-91.58</v>
+        <v>-86.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.35</v>
+        <v>-1.26</v>
       </c>
       <c r="B16" t="n">
-        <v>1.02</v>
+        <v>-1.72</v>
       </c>
       <c r="C16" t="n">
-        <v>-90.56999999999999</v>
+        <v>-86.72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.02</v>
+        <v>-0.84</v>
       </c>
       <c r="B17" t="n">
-        <v>0.76</v>
+        <v>-1.47</v>
       </c>
       <c r="C17" t="n">
-        <v>-89.7</v>
+        <v>-86.84999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.76</v>
+        <v>-1.46</v>
       </c>
       <c r="C18" t="n">
-        <v>-89.7</v>
+        <v>-87.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26</v>
+        <v>-1.46</v>
       </c>
       <c r="C19" t="n">
-        <v>-89.08</v>
+        <v>-87.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.72</v>
+        <v>0.42</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.01</v>
+        <v>-1.24</v>
       </c>
       <c r="C20" t="n">
-        <v>-88.56999999999999</v>
+        <v>-87.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25</v>
+        <v>-1.48</v>
       </c>
       <c r="C21" t="n">
-        <v>-88.13</v>
+        <v>-88.18000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-5.53</v>
+        <v>2.14</v>
       </c>
       <c r="B22" t="n">
-        <v>4.64</v>
+        <v>-1.75</v>
       </c>
       <c r="C22" t="n">
-        <v>-86.36</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.53</v>
+        <v>2.14</v>
       </c>
       <c r="B23" t="n">
-        <v>4.64</v>
+        <v>-1.75</v>
       </c>
       <c r="C23" t="n">
-        <v>-86.36</v>
+        <v>-89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-2.13</v>
+        <v>3.03</v>
       </c>
       <c r="B24" t="n">
-        <v>4.14</v>
+        <v>-1.75</v>
       </c>
       <c r="C24" t="n">
-        <v>-86.81999999999999</v>
+        <v>-89.76000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-12.73</v>
+        <v>3.48</v>
       </c>
       <c r="B25" t="n">
-        <v>10.14</v>
+        <v>-2.01</v>
       </c>
       <c r="C25" t="n">
-        <v>-83.67</v>
+        <v>-90.79000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1.28</v>
+        <v>3.94</v>
       </c>
       <c r="B26" t="n">
-        <v>4.14</v>
+        <v>-1.77</v>
       </c>
       <c r="C26" t="n">
-        <v>-86.84</v>
+        <v>-91.70999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.43</v>
+        <v>3.96</v>
       </c>
       <c r="B27" t="n">
-        <v>1.71</v>
+        <v>-1.27</v>
       </c>
       <c r="C27" t="n">
-        <v>-86.79000000000001</v>
+        <v>-92.59</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.43</v>
+        <v>3.96</v>
       </c>
       <c r="B28" t="n">
-        <v>1.71</v>
+        <v>-1.27</v>
       </c>
       <c r="C28" t="n">
-        <v>-86.79000000000001</v>
+        <v>-92.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.43</v>
+        <v>4.43</v>
       </c>
       <c r="B29" t="n">
-        <v>1.22</v>
+        <v>-0.5</v>
       </c>
       <c r="C29" t="n">
-        <v>-86.73999999999999</v>
+        <v>-93.19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.43</v>
+        <v>4.01</v>
       </c>
       <c r="B30" t="n">
-        <v>0.74</v>
+        <v>1.29</v>
       </c>
       <c r="C30" t="n">
-        <v>-86.68000000000001</v>
+        <v>-93.75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.42</v>
+        <v>3.57</v>
       </c>
       <c r="B31" t="n">
-        <v>0.24</v>
+        <v>3.61</v>
       </c>
       <c r="C31" t="n">
-        <v>-86.81</v>
+        <v>-94.12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.42</v>
+        <v>3.57</v>
       </c>
       <c r="B32" t="n">
-        <v>0.24</v>
+        <v>3.61</v>
       </c>
       <c r="C32" t="n">
-        <v>-86.81</v>
+        <v>-94.12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.84</v>
+        <v>3.57</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.49</v>
+        <v>5.68</v>
       </c>
       <c r="C33" t="n">
-        <v>-86.98999999999999</v>
+        <v>-94.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.7</v>
+        <v>3.58</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.98</v>
+        <v>8.26</v>
       </c>
       <c r="C34" t="n">
-        <v>-87.48</v>
+        <v>-94.47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.13</v>
+        <v>3.59</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.23</v>
+        <v>10.87</v>
       </c>
       <c r="C35" t="n">
-        <v>-88.11</v>
+        <v>-94.58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.14</v>
+        <v>3.59</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.24</v>
+        <v>13.48</v>
       </c>
       <c r="C36" t="n">
-        <v>-88.87</v>
+        <v>-94.62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.14</v>
+        <v>3.59</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.24</v>
+        <v>13.48</v>
       </c>
       <c r="C37" t="n">
-        <v>-88.87</v>
+        <v>-94.62</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.45</v>
+        <v>3.59</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.5</v>
+        <v>16.09</v>
       </c>
       <c r="C38" t="n">
-        <v>-89.68000000000001</v>
+        <v>-94.59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.34</v>
+        <v>3.59</v>
       </c>
       <c r="B39" t="n">
-        <v>-2</v>
+        <v>18.71</v>
       </c>
       <c r="C39" t="n">
-        <v>-90.56</v>
+        <v>-94.51000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.8</v>
+        <v>3.58</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.77</v>
+        <v>21.33</v>
       </c>
       <c r="C40" t="n">
-        <v>-91.48</v>
+        <v>-94.34999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.8</v>
+        <v>3.58</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.77</v>
+        <v>21.33</v>
       </c>
       <c r="C41" t="n">
-        <v>-91.48</v>
+        <v>-94.34999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5.27</v>
+        <v>3.57</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.01</v>
+        <v>23.95</v>
       </c>
       <c r="C42" t="n">
-        <v>-92.12</v>
+        <v>-94.13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.85</v>
+        <v>3.57</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.29</v>
+        <v>26.11</v>
       </c>
       <c r="C43" t="n">
-        <v>-92.81</v>
+        <v>-94.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4.89</v>
+        <v>3.58</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.3</v>
+        <v>27.8</v>
       </c>
       <c r="C44" t="n">
-        <v>-93.42</v>
+        <v>-94.31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.9</v>
+        <v>4.01</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.83</v>
+        <v>29.28</v>
       </c>
       <c r="C45" t="n">
-        <v>-93.95</v>
+        <v>-94.59999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.9</v>
+        <v>4.01</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.83</v>
+        <v>29.28</v>
       </c>
       <c r="C46" t="n">
-        <v>-93.95</v>
+        <v>-94.59999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.93</v>
+        <v>4.48</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.84</v>
+        <v>29.79</v>
       </c>
       <c r="C47" t="n">
-        <v>-94.56999999999999</v>
+        <v>-95.22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.95</v>
+        <v>4.49</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.34</v>
+        <v>30.06</v>
       </c>
       <c r="C48" t="n">
-        <v>-95.06</v>
+        <v>-96.01000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5.85</v>
+        <v>4.95</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.81</v>
+        <v>30.64</v>
       </c>
       <c r="C49" t="n">
-        <v>-95.3</v>
+        <v>-96.83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.85</v>
+        <v>4.98</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.81</v>
+        <v>30.92</v>
       </c>
       <c r="C50" t="n">
-        <v>-95.3</v>
+        <v>-97.61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.33</v>
+        <v>4.98</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.53</v>
+        <v>30.92</v>
       </c>
       <c r="C51" t="n">
-        <v>-95.56999999999999</v>
+        <v>-97.61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.88</v>
+        <v>5.42</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.79</v>
+        <v>31.46</v>
       </c>
       <c r="C52" t="n">
-        <v>-95.66</v>
+        <v>-98.22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.35</v>
+        <v>4.52</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.05</v>
+        <v>32.75</v>
       </c>
       <c r="C53" t="n">
-        <v>-95.91</v>
+        <v>-98.45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.34</v>
+        <v>4.51</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.04</v>
+        <v>33.31</v>
       </c>
       <c r="C54" t="n">
-        <v>-96.12</v>
+        <v>-98.34999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.34</v>
+        <v>4.51</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.04</v>
+        <v>33.31</v>
       </c>
       <c r="C55" t="n">
-        <v>-96.12</v>
+        <v>-98.34999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.9</v>
+        <v>4.51</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.31</v>
+        <v>33.31</v>
       </c>
       <c r="C56" t="n">
-        <v>-96.20999999999999</v>
+        <v>-98.34999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.91</v>
+        <v>4.51</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.31</v>
+        <v>33.31</v>
       </c>
       <c r="C57" t="n">
-        <v>-96.42</v>
+        <v>-98.34999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.93</v>
+        <v>4.51</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.8</v>
+        <v>33.31</v>
       </c>
       <c r="C58" t="n">
-        <v>-96.7</v>
+        <v>-98.34999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>6.39</v>
+        <v>4.51</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.54</v>
+        <v>33.31</v>
       </c>
       <c r="C59" t="n">
-        <v>-96.81</v>
+        <v>-98.34999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>6.39</v>
+        <v>4.51</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.54</v>
+        <v>33.31</v>
       </c>
       <c r="C60" t="n">
-        <v>-96.81</v>
+        <v>-98.34999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.32</v>
+        <v>4.52</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>32.83</v>
       </c>
       <c r="C61" t="n">
-        <v>-97.04000000000001</v>
+        <v>-98.64</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.32</v>
+        <v>4.98</v>
       </c>
       <c r="B62" t="n">
-        <v>1.05</v>
+        <v>32.58</v>
       </c>
       <c r="C62" t="n">
-        <v>-97.17</v>
+        <v>-98.77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.79</v>
+        <v>4.09</v>
       </c>
       <c r="B63" t="n">
-        <v>1.84</v>
+        <v>32.11</v>
       </c>
       <c r="C63" t="n">
-        <v>-97.33</v>
+        <v>-99.09999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.79</v>
+        <v>4.09</v>
       </c>
       <c r="B64" t="n">
-        <v>1.84</v>
+        <v>32.11</v>
       </c>
       <c r="C64" t="n">
-        <v>-97.33</v>
+        <v>-99.09999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7.82</v>
+        <v>4.54</v>
       </c>
       <c r="B65" t="n">
-        <v>2.38</v>
+        <v>31.86</v>
       </c>
       <c r="C65" t="n">
-        <v>-97.59999999999999</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.82</v>
+        <v>4.54</v>
       </c>
       <c r="B66" t="n">
-        <v>3.44</v>
+        <v>31.86</v>
       </c>
       <c r="C66" t="n">
-        <v>-97.70999999999999</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.82</v>
+        <v>4.54</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52</v>
+        <v>31.86</v>
       </c>
       <c r="C67" t="n">
-        <v>-97.81</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.83</v>
+        <v>4.54</v>
       </c>
       <c r="B68" t="n">
-        <v>5.58</v>
+        <v>31.86</v>
       </c>
       <c r="C68" t="n">
-        <v>-97.90000000000001</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.83</v>
+        <v>4.54</v>
       </c>
       <c r="B69" t="n">
-        <v>5.58</v>
+        <v>31.86</v>
       </c>
       <c r="C69" t="n">
-        <v>-97.90000000000001</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.35</v>
+        <v>4.54</v>
       </c>
       <c r="B70" t="n">
-        <v>6.92</v>
+        <v>31.86</v>
       </c>
       <c r="C70" t="n">
-        <v>-97.92</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.35</v>
+        <v>4.54</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>31.86</v>
       </c>
       <c r="C71" t="n">
-        <v>-97.98999999999999</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.89</v>
+        <v>4.54</v>
       </c>
       <c r="B72" t="n">
-        <v>8.800000000000001</v>
+        <v>31.86</v>
       </c>
       <c r="C72" t="n">
-        <v>-97.95999999999999</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.89</v>
+        <v>4.54</v>
       </c>
       <c r="B73" t="n">
-        <v>8.800000000000001</v>
+        <v>31.86</v>
       </c>
       <c r="C73" t="n">
-        <v>-97.95999999999999</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5.97</v>
+        <v>4.54</v>
       </c>
       <c r="B74" t="n">
-        <v>9.34</v>
+        <v>31.86</v>
       </c>
       <c r="C74" t="n">
-        <v>-98.04000000000001</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5.52</v>
+        <v>4.54</v>
       </c>
       <c r="B75" t="n">
-        <v>10.15</v>
+        <v>31.86</v>
       </c>
       <c r="C75" t="n">
-        <v>-98.2</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.6</v>
+        <v>4.09</v>
       </c>
       <c r="B76" t="n">
-        <v>10.71</v>
+        <v>31.62</v>
       </c>
       <c r="C76" t="n">
-        <v>-98.26000000000001</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.15</v>
+        <v>4.54</v>
       </c>
       <c r="B77" t="n">
-        <v>10.45</v>
+        <v>31.86</v>
       </c>
       <c r="C77" t="n">
-        <v>-98.38</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.15</v>
+        <v>4.54</v>
       </c>
       <c r="B78" t="n">
-        <v>10.45</v>
+        <v>31.86</v>
       </c>
       <c r="C78" t="n">
-        <v>-98.38</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.78</v>
+        <v>4.54</v>
       </c>
       <c r="B79" t="n">
-        <v>10.74</v>
+        <v>31.86</v>
       </c>
       <c r="C79" t="n">
-        <v>-98.53</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.38</v>
+        <v>4.09</v>
       </c>
       <c r="B80" t="n">
-        <v>10.48</v>
+        <v>31.62</v>
       </c>
       <c r="C80" t="n">
-        <v>-98.66</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="B81" t="n">
-        <v>9.699999999999999</v>
+        <v>31.86</v>
       </c>
       <c r="C81" t="n">
-        <v>-98.95</v>
+        <v>-99.23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1.86</v>
+        <v>4.09</v>
       </c>
       <c r="B82" t="n">
-        <v>8.1</v>
+        <v>31.62</v>
       </c>
       <c r="C82" t="n">
-        <v>-99.28</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-1.86</v>
+        <v>4.09</v>
       </c>
       <c r="B83" t="n">
-        <v>8.1</v>
+        <v>31.62</v>
       </c>
       <c r="C83" t="n">
-        <v>-99.28</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-4.19</v>
+        <v>4.09</v>
       </c>
       <c r="B84" t="n">
-        <v>6.21</v>
+        <v>31.62</v>
       </c>
       <c r="C84" t="n">
-        <v>-99.62</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-6.54</v>
+        <v>4.09</v>
       </c>
       <c r="B85" t="n">
-        <v>4.32</v>
+        <v>31.62</v>
       </c>
       <c r="C85" t="n">
-        <v>-99.88</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-7.49</v>
+        <v>4.09</v>
       </c>
       <c r="B86" t="n">
-        <v>2.14</v>
+        <v>31.62</v>
       </c>
       <c r="C86" t="n">
-        <v>-100.03</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-7.49</v>
+        <v>4.09</v>
       </c>
       <c r="B87" t="n">
-        <v>2.14</v>
+        <v>31.62</v>
       </c>
       <c r="C87" t="n">
-        <v>-100.03</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-9.859999999999999</v>
+        <v>4.09</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.31</v>
+        <v>31.62</v>
       </c>
       <c r="C88" t="n">
-        <v>-100.07</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-10.83</v>
+        <v>4.09</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.95</v>
+        <v>31.62</v>
       </c>
       <c r="C89" t="n">
-        <v>-100.17</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-11.8</v>
+        <v>4.09</v>
       </c>
       <c r="B90" t="n">
-        <v>-4.13</v>
+        <v>31.62</v>
       </c>
       <c r="C90" t="n">
-        <v>-100.15</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-14.19</v>
+        <v>4.09</v>
       </c>
       <c r="B91" t="n">
-        <v>-6.58</v>
+        <v>31.62</v>
       </c>
       <c r="C91" t="n">
-        <v>-99.95</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-14.19</v>
+        <v>4.09</v>
       </c>
       <c r="B92" t="n">
-        <v>-6.58</v>
+        <v>31.62</v>
       </c>
       <c r="C92" t="n">
-        <v>-99.95</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-15.18</v>
+        <v>4.09</v>
       </c>
       <c r="B93" t="n">
-        <v>-9.83</v>
+        <v>31.62</v>
       </c>
       <c r="C93" t="n">
-        <v>-99.77</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-15.21</v>
+        <v>4.09</v>
       </c>
       <c r="B94" t="n">
-        <v>-11.98</v>
+        <v>31.62</v>
       </c>
       <c r="C94" t="n">
-        <v>-99.69</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-14.77</v>
+        <v>4.09</v>
       </c>
       <c r="B95" t="n">
-        <v>-13.34</v>
+        <v>31.62</v>
       </c>
       <c r="C95" t="n">
-        <v>-99.73</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-14.77</v>
+        <v>4.09</v>
       </c>
       <c r="B96" t="n">
-        <v>-13.34</v>
+        <v>31.62</v>
       </c>
       <c r="C96" t="n">
-        <v>-99.73</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-14.32</v>
+        <v>4.09</v>
       </c>
       <c r="B97" t="n">
-        <v>-14.68</v>
+        <v>31.62</v>
       </c>
       <c r="C97" t="n">
-        <v>-99.76000000000001</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-13.86</v>
+        <v>4.09</v>
       </c>
       <c r="B98" t="n">
-        <v>-14.95</v>
+        <v>31.62</v>
       </c>
       <c r="C98" t="n">
-        <v>-99.84999999999999</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-13.4</v>
+        <v>4.09</v>
       </c>
       <c r="B99" t="n">
-        <v>-15.22</v>
+        <v>31.62</v>
       </c>
       <c r="C99" t="n">
-        <v>-99.94</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-12.93</v>
+        <v>4.09</v>
       </c>
       <c r="B100" t="n">
-        <v>-16.01</v>
+        <v>31.62</v>
       </c>
       <c r="C100" t="n">
-        <v>-99.89</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-12.93</v>
+        <v>4.09</v>
       </c>
       <c r="B101" t="n">
-        <v>-16.01</v>
+        <v>31.62</v>
       </c>
       <c r="C101" t="n">
-        <v>-99.89</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-11.99</v>
+        <v>4.09</v>
       </c>
       <c r="B102" t="n">
-        <v>-16.01</v>
+        <v>31.62</v>
       </c>
       <c r="C102" t="n">
-        <v>-100</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-10.08</v>
+        <v>4.09</v>
       </c>
       <c r="B103" t="n">
-        <v>-16.01</v>
+        <v>31.62</v>
       </c>
       <c r="C103" t="n">
-        <v>-100.19</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-9.58</v>
+        <v>4.09</v>
       </c>
       <c r="B104" t="n">
-        <v>-15.73</v>
+        <v>31.62</v>
       </c>
       <c r="C104" t="n">
-        <v>-100.21</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-9.58</v>
+        <v>4.09</v>
       </c>
       <c r="B105" t="n">
-        <v>-15.73</v>
+        <v>31.62</v>
       </c>
       <c r="C105" t="n">
-        <v>-100.21</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-8.630000000000001</v>
+        <v>4.09</v>
       </c>
       <c r="B106" t="n">
-        <v>-15.73</v>
+        <v>31.62</v>
       </c>
       <c r="C106" t="n">
-        <v>-100.29</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-8.15</v>
+        <v>4.09</v>
       </c>
       <c r="B107" t="n">
-        <v>-15.46</v>
+        <v>31.62</v>
       </c>
       <c r="C107" t="n">
-        <v>-100.3</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-7.19</v>
+        <v>4.09</v>
       </c>
       <c r="B108" t="n">
-        <v>-14.39</v>
+        <v>31.62</v>
       </c>
       <c r="C108" t="n">
-        <v>-100.44</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-5.74</v>
+        <v>4.09</v>
       </c>
       <c r="B109" t="n">
-        <v>-14.1</v>
+        <v>31.62</v>
       </c>
       <c r="C109" t="n">
-        <v>-100.5</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-5.74</v>
+        <v>4.09</v>
       </c>
       <c r="B110" t="n">
-        <v>-14.1</v>
+        <v>31.62</v>
       </c>
       <c r="C110" t="n">
-        <v>-100.5</v>
+        <v>-99.39</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-4.78</v>
+        <v>4.55</v>
       </c>
       <c r="B111" t="n">
-        <v>-13.03</v>
+        <v>31.37</v>
       </c>
       <c r="C111" t="n">
-        <v>-100.61</v>
+        <v>-99.52</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-4.31</v>
+        <v>4.55</v>
       </c>
       <c r="B112" t="n">
-        <v>-12.76</v>
+        <v>31.37</v>
       </c>
       <c r="C112" t="n">
-        <v>-100.59</v>
+        <v>-99.52</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-4.3</v>
+        <v>4.55</v>
       </c>
       <c r="B113" t="n">
-        <v>-12.21</v>
+        <v>31.37</v>
       </c>
       <c r="C113" t="n">
-        <v>-100.52</v>
+        <v>-99.52</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-3.33</v>
+        <v>4.55</v>
       </c>
       <c r="B114" t="n">
-        <v>-11.12</v>
+        <v>31.37</v>
       </c>
       <c r="C114" t="n">
-        <v>-100.6</v>
+        <v>-99.52</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-3.33</v>
+        <v>4.55</v>
       </c>
       <c r="B115" t="n">
-        <v>-11.12</v>
+        <v>31.37</v>
       </c>
       <c r="C115" t="n">
-        <v>-100.6</v>
+        <v>-99.52</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-3.34</v>
+        <v>4.55</v>
       </c>
       <c r="B116" t="n">
-        <v>-9.49</v>
+        <v>31.37</v>
       </c>
       <c r="C116" t="n">
-        <v>-100.55</v>
+        <v>-99.52</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-2.37</v>
+        <v>4.55</v>
       </c>
       <c r="B117" t="n">
-        <v>-7.33</v>
+        <v>31.37</v>
       </c>
       <c r="C117" t="n">
-        <v>-100.6</v>
+        <v>-99.52</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-1.9</v>
+        <v>4.09</v>
       </c>
       <c r="B118" t="n">
-        <v>-5.43</v>
+        <v>30.55</v>
       </c>
       <c r="C118" t="n">
-        <v>-100.65</v>
+        <v>-99.78</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-1.9</v>
+        <v>4.09</v>
       </c>
       <c r="B119" t="n">
-        <v>-5.43</v>
+        <v>30.55</v>
       </c>
       <c r="C119" t="n">
-        <v>-100.65</v>
+        <v>-99.78</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1.41</v>
+        <v>4.09</v>
       </c>
       <c r="B120" t="n">
-        <v>-3.52</v>
+        <v>30.55</v>
       </c>
       <c r="C120" t="n">
-        <v>-100.46</v>
+        <v>-99.78</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.9399999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.64</v>
+        <v>29.98</v>
       </c>
       <c r="C121" t="n">
-        <v>-100.44</v>
+        <v>-99.87</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.95</v>
+        <v>4.11</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.55</v>
+        <v>29.39</v>
       </c>
       <c r="C122" t="n">
-        <v>-100.38</v>
+        <v>-99.95999999999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.95</v>
+        <v>3.66</v>
       </c>
       <c r="B123" t="n">
-        <v>0.55</v>
+        <v>28.01</v>
       </c>
       <c r="C123" t="n">
-        <v>-100.31</v>
+        <v>-100.28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.95</v>
+        <v>3.66</v>
       </c>
       <c r="B124" t="n">
-        <v>0.55</v>
+        <v>28.01</v>
       </c>
       <c r="C124" t="n">
-        <v>-100.31</v>
+        <v>-100.28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1.41</v>
+        <v>3.67</v>
       </c>
       <c r="B125" t="n">
-        <v>1.36</v>
+        <v>26.87</v>
       </c>
       <c r="C125" t="n">
-        <v>-100.3</v>
+        <v>-100.43</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1.41</v>
+        <v>3.69</v>
       </c>
       <c r="B126" t="n">
-        <v>1.9</v>
+        <v>25.21</v>
       </c>
       <c r="C126" t="n">
-        <v>-100.36</v>
+        <v>-100.84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1.88</v>
+        <v>3.7</v>
       </c>
       <c r="B127" t="n">
-        <v>2.17</v>
+        <v>23.5</v>
       </c>
       <c r="C127" t="n">
-        <v>-100.28</v>
+        <v>-101.01</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-1.88</v>
+        <v>3.7</v>
       </c>
       <c r="B128" t="n">
-        <v>2.17</v>
+        <v>23.5</v>
       </c>
       <c r="C128" t="n">
-        <v>-100.28</v>
+        <v>-101.01</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-2.34</v>
+        <v>3.73</v>
       </c>
       <c r="B129" t="n">
-        <v>2.98</v>
+        <v>21.25</v>
       </c>
       <c r="C129" t="n">
-        <v>-100.25</v>
+        <v>-101.41</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-2.82</v>
+        <v>3.75</v>
       </c>
       <c r="B130" t="n">
-        <v>3.25</v>
+        <v>18.44</v>
       </c>
       <c r="C130" t="n">
-        <v>-100.16</v>
+        <v>-101.78</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-3.75</v>
+        <v>3.75</v>
       </c>
       <c r="B131" t="n">
-        <v>3.25</v>
+        <v>16.21</v>
       </c>
       <c r="C131" t="n">
-        <v>-100.13</v>
+        <v>-102.08</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-4.22</v>
+        <v>3.77</v>
       </c>
       <c r="B132" t="n">
-        <v>2.98</v>
+        <v>13.39</v>
       </c>
       <c r="C132" t="n">
-        <v>-100.19</v>
+        <v>-102.32</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.22</v>
+        <v>3.77</v>
       </c>
       <c r="B133" t="n">
-        <v>2.98</v>
+        <v>13.39</v>
       </c>
       <c r="C133" t="n">
-        <v>-100.19</v>
+        <v>-102.32</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-5.16</v>
+        <v>4.27</v>
       </c>
       <c r="B134" t="n">
-        <v>2.44</v>
+        <v>10.3</v>
       </c>
       <c r="C134" t="n">
-        <v>-100.3</v>
+        <v>-102.57</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-5.63</v>
+        <v>3.82</v>
       </c>
       <c r="B135" t="n">
-        <v>2.17</v>
+        <v>7.81</v>
       </c>
       <c r="C135" t="n">
-        <v>-100.35</v>
+        <v>-102.79</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-6.59</v>
+        <v>3.83</v>
       </c>
       <c r="B136" t="n">
-        <v>1.61</v>
+        <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>-100.45</v>
+        <v>-102.82</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-6.59</v>
+        <v>3.83</v>
       </c>
       <c r="B137" t="n">
-        <v>1.61</v>
+        <v>5</v>
       </c>
       <c r="C137" t="n">
-        <v>-100.45</v>
+        <v>-102.82</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-7.07</v>
+        <v>3.83</v>
       </c>
       <c r="B138" t="n">
-        <v>0.26</v>
+        <v>1.66</v>
       </c>
       <c r="C138" t="n">
-        <v>-100.57</v>
+        <v>-102.92</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-7.55</v>
+        <v>3.86</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.11</v>
+        <v>-2.23</v>
       </c>
       <c r="C139" t="n">
-        <v>-100.68</v>
+        <v>-102.84</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-8.5</v>
+        <v>4.34</v>
       </c>
       <c r="B140" t="n">
-        <v>-2.2</v>
+        <v>-5.82</v>
       </c>
       <c r="C140" t="n">
-        <v>-100.66</v>
+        <v>-102.76</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-8.99</v>
+        <v>4.38</v>
       </c>
       <c r="B141" t="n">
-        <v>-4.12</v>
+        <v>-9.66</v>
       </c>
       <c r="C141" t="n">
-        <v>-100.63</v>
+        <v>-102.62</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-8.99</v>
+        <v>4.38</v>
       </c>
       <c r="B142" t="n">
-        <v>-4.12</v>
+        <v>-9.66</v>
       </c>
       <c r="C142" t="n">
-        <v>-100.63</v>
+        <v>-102.62</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-9.029999999999999</v>
+        <v>4.88</v>
       </c>
       <c r="B143" t="n">
-        <v>-5.75</v>
+        <v>-14.82</v>
       </c>
       <c r="C143" t="n">
-        <v>-100.77</v>
+        <v>-102.08</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-9.52</v>
+        <v>4.91</v>
       </c>
       <c r="B144" t="n">
-        <v>-7.64</v>
+        <v>-20.73</v>
       </c>
       <c r="C144" t="n">
-        <v>-100.68</v>
+        <v>-101.37</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-9.039999999999999</v>
+        <v>5.92</v>
       </c>
       <c r="B145" t="n">
-        <v>-8.470000000000001</v>
+        <v>-27.54</v>
       </c>
       <c r="C145" t="n">
-        <v>-100.66</v>
+        <v>-100.1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-9.050000000000001</v>
+        <v>5.95</v>
       </c>
       <c r="B146" t="n">
-        <v>-9.550000000000001</v>
+        <v>-34.12</v>
       </c>
       <c r="C146" t="n">
-        <v>-100.64</v>
+        <v>-98.47</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-9.050000000000001</v>
+        <v>5.95</v>
       </c>
       <c r="B147" t="n">
-        <v>-9.550000000000001</v>
+        <v>-34.12</v>
       </c>
       <c r="C147" t="n">
-        <v>-100.64</v>
+        <v>-98.47</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-9.07</v>
+        <v>5.47</v>
       </c>
       <c r="B148" t="n">
-        <v>-10.63</v>
+        <v>-37.83</v>
       </c>
       <c r="C148" t="n">
-        <v>-100.6</v>
+        <v>-97.39</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-8.609999999999999</v>
+        <v>4.98</v>
       </c>
       <c r="B149" t="n">
-        <v>-10.9</v>
+        <v>-39.5</v>
       </c>
       <c r="C149" t="n">
-        <v>-100.69</v>
+        <v>-96.83</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-8.140000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="B150" t="n">
-        <v>-11.7</v>
+        <v>-40.47</v>
       </c>
       <c r="C150" t="n">
-        <v>-100.64</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-8.140000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="B151" t="n">
-        <v>-11.7</v>
+        <v>-40.47</v>
       </c>
       <c r="C151" t="n">
-        <v>-100.64</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-8.140000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="B152" t="n">
-        <v>-11.7</v>
+        <v>-40.47</v>
       </c>
       <c r="C152" t="n">
-        <v>-100.64</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-7.17</v>
+        <v>4.99</v>
       </c>
       <c r="B153" t="n">
-        <v>-11.69</v>
+        <v>-40.47</v>
       </c>
       <c r="C153" t="n">
-        <v>-100.71</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-6.21</v>
+        <v>4.99</v>
       </c>
       <c r="B154" t="n">
-        <v>-12.22</v>
+        <v>-40.47</v>
       </c>
       <c r="C154" t="n">
-        <v>-100.64</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-5.73</v>
+        <v>4.99</v>
       </c>
       <c r="B155" t="n">
-        <v>-11.95</v>
+        <v>-40.47</v>
       </c>
       <c r="C155" t="n">
-        <v>-100.62</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-5.73</v>
+        <v>4.99</v>
       </c>
       <c r="B156" t="n">
-        <v>-11.95</v>
+        <v>-40.47</v>
       </c>
       <c r="C156" t="n">
-        <v>-100.62</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-5.73</v>
+        <v>4.99</v>
       </c>
       <c r="B157" t="n">
-        <v>-11.95</v>
+        <v>-40.47</v>
       </c>
       <c r="C157" t="n">
-        <v>-100.62</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-5.25</v>
+        <v>4.99</v>
       </c>
       <c r="B158" t="n">
-        <v>-11.67</v>
+        <v>-40.47</v>
       </c>
       <c r="C158" t="n">
-        <v>-100.61</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-4.77</v>
+        <v>4.99</v>
       </c>
       <c r="B159" t="n">
-        <v>-10.87</v>
+        <v>-40.47</v>
       </c>
       <c r="C159" t="n">
-        <v>-100.72</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-4.77</v>
+        <v>4.99</v>
       </c>
       <c r="B160" t="n">
-        <v>-10.87</v>
+        <v>-40.47</v>
       </c>
       <c r="C160" t="n">
-        <v>-100.72</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-3.81</v>
+        <v>4.99</v>
       </c>
       <c r="B161" t="n">
-        <v>-10.32</v>
+        <v>-40.47</v>
       </c>
       <c r="C161" t="n">
-        <v>-100.67</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-3.33</v>
+        <v>4.99</v>
       </c>
       <c r="B162" t="n">
-        <v>-9.51</v>
+        <v>-40.47</v>
       </c>
       <c r="C162" t="n">
-        <v>-100.76</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-2.85</v>
+        <v>4.99</v>
       </c>
       <c r="B163" t="n">
-        <v>-9.24</v>
+        <v>-40.47</v>
       </c>
       <c r="C163" t="n">
-        <v>-100.72</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>-2.86</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-100.74</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>-2.86</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-8.15</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-100.74</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-7.07</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-100.77</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-5.97</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-100.77</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-4.89</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-100.75</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-2.99</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-100.76</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>-1.41</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-2.99</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-100.76</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>-1.88</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-100.77</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>-1.88</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-100.72</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>-2.36</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-100.71</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>-2.36</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-100.71</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>-2.35</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C175" t="n">
-        <v>-100.64</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="C176" t="n">
-        <v>-100.55</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>-2.82</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="C177" t="n">
-        <v>-100.62</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>-3.29</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C178" t="n">
-        <v>-100.53</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>-3.29</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C179" t="n">
-        <v>-100.53</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>-3.75</v>
-      </c>
-      <c r="B180" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C180" t="n">
-        <v>-100.44</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="B181" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C181" t="n">
-        <v>-100.4</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="B182" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="C182" t="n">
-        <v>-100.4</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>-5.17</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="C183" t="n">
-        <v>-100.51</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>-5.17</v>
-      </c>
-      <c r="B184" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="C184" t="n">
-        <v>-100.51</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>-6.11</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C185" t="n">
-        <v>-100.4</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="C186" t="n">
-        <v>-100.6</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>-7.07</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="C187" t="n">
-        <v>-100.57</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>-7.07</v>
-      </c>
-      <c r="B188" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="C188" t="n">
-        <v>-100.57</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>-7.55</v>
-      </c>
-      <c r="B189" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="C189" t="n">
-        <v>-100.68</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>-8.039999999999999</v>
-      </c>
-      <c r="B190" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="C190" t="n">
-        <v>-100.76</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>-8.51</v>
-      </c>
-      <c r="B191" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="C191" t="n">
-        <v>-100.7</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="B192" t="n">
-        <v>-4.67</v>
-      </c>
-      <c r="C192" t="n">
-        <v>-100.75</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>-9.02</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-4.67</v>
-      </c>
-      <c r="C193" t="n">
-        <v>-100.75</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="B194" t="n">
-        <v>-6.29</v>
-      </c>
-      <c r="C194" t="n">
-        <v>-100.67</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>-8.08</v>
-      </c>
-      <c r="B195" t="n">
-        <v>-7.37</v>
-      </c>
-      <c r="C195" t="n">
-        <v>-100.75</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="B196" t="n">
-        <v>-7.92</v>
-      </c>
-      <c r="C196" t="n">
-        <v>-100.85</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>-8.1</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-7.92</v>
-      </c>
-      <c r="C197" t="n">
-        <v>-100.85</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>-7.64</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-9.279999999999999</v>
-      </c>
-      <c r="C198" t="n">
-        <v>-100.91</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>-7.64</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-9.81</v>
-      </c>
-      <c r="C199" t="n">
-        <v>-100.79</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>-6.69</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-9.81</v>
-      </c>
-      <c r="C200" t="n">
-        <v>-100.86</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>-6.22</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-10.61</v>
-      </c>
-      <c r="C201" t="n">
-        <v>-100.81</v>
+        <v>-96.51000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/test_results/export_pos_data.xlsx
+++ b/scripts/test_results/export_pos_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,1784 +452,2202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.69</v>
+        <v>2.68</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.46</v>
+        <v>0.52</v>
       </c>
       <c r="C2" t="n">
-        <v>-86.66</v>
+        <v>-94.20999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.69</v>
+        <v>2.68</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.46</v>
+        <v>0.52</v>
       </c>
       <c r="C3" t="n">
-        <v>-86.66</v>
+        <v>-94.20999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.69</v>
+        <v>2.68</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.46</v>
+        <v>0.52</v>
       </c>
       <c r="C4" t="n">
-        <v>-86.66</v>
+        <v>-94.20999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.69</v>
+        <v>2.68</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.46</v>
+        <v>0.52</v>
       </c>
       <c r="C5" t="n">
-        <v>-86.66</v>
+        <v>-94.20999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.69</v>
+        <v>1.77</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.46</v>
+        <v>2.06</v>
       </c>
       <c r="C6" t="n">
-        <v>-86.66</v>
+        <v>-93.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.69</v>
+        <v>1.77</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.46</v>
+        <v>2.06</v>
       </c>
       <c r="C7" t="n">
-        <v>-86.66</v>
+        <v>-93.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.69</v>
+        <v>0.44</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.46</v>
+        <v>2.29</v>
       </c>
       <c r="C8" t="n">
-        <v>-86.66</v>
+        <v>-92.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.69</v>
+        <v>-0.44</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.46</v>
+        <v>2.28</v>
       </c>
       <c r="C9" t="n">
-        <v>-86.66</v>
+        <v>-91.70999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.69</v>
+        <v>-0.45</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.46</v>
+        <v>2.26</v>
       </c>
       <c r="C10" t="n">
-        <v>-86.66</v>
+        <v>-90.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.69</v>
+        <v>-0.45</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.46</v>
+        <v>2.26</v>
       </c>
       <c r="C11" t="n">
-        <v>-86.66</v>
+        <v>-90.91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.69</v>
+        <v>-0.86</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.46</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>-86.66</v>
+        <v>-90.19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.69</v>
+        <v>-1.29</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.46</v>
+        <v>1.75</v>
       </c>
       <c r="C13" t="n">
-        <v>-86.66</v>
+        <v>-89.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.69</v>
+        <v>-1.3</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.46</v>
+        <v>1.24</v>
       </c>
       <c r="C14" t="n">
-        <v>-86.66</v>
+        <v>-89.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.69</v>
+        <v>-2.14</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.46</v>
+        <v>0.75</v>
       </c>
       <c r="C15" t="n">
-        <v>-86.66</v>
+        <v>-88.56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.26</v>
+        <v>-2.14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.72</v>
+        <v>0.75</v>
       </c>
       <c r="C16" t="n">
-        <v>-86.72</v>
+        <v>-88.56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.84</v>
+        <v>-1.7</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.47</v>
+        <v>0.49</v>
       </c>
       <c r="C17" t="n">
-        <v>-86.84999999999999</v>
+        <v>-88.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.46</v>
+        <v>0.49</v>
       </c>
       <c r="C18" t="n">
-        <v>-87.05</v>
+        <v>-88.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>-1.27</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.46</v>
+        <v>0.25</v>
       </c>
       <c r="C19" t="n">
-        <v>-87.05</v>
+        <v>-87.94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.42</v>
+        <v>-1.27</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.24</v>
+        <v>0.25</v>
       </c>
       <c r="C20" t="n">
-        <v>-87.56</v>
+        <v>-87.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.71</v>
+        <v>-1.27</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.48</v>
+        <v>-0.24</v>
       </c>
       <c r="C21" t="n">
-        <v>-88.18000000000001</v>
+        <v>-87.87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.14</v>
+        <v>-0.85</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.75</v>
+        <v>-0.49</v>
       </c>
       <c r="C22" t="n">
-        <v>-89</v>
+        <v>-87.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.14</v>
+        <v>-0.85</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.75</v>
+        <v>-0.49</v>
       </c>
       <c r="C23" t="n">
-        <v>-89</v>
+        <v>-87.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.03</v>
+        <v>-0.85</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.75</v>
+        <v>-0.99</v>
       </c>
       <c r="C24" t="n">
-        <v>-89.76000000000001</v>
+        <v>-87.68000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.48</v>
+        <v>-0.85</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.01</v>
+        <v>-0.99</v>
       </c>
       <c r="C25" t="n">
-        <v>-90.79000000000001</v>
+        <v>-87.68000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.94</v>
+        <v>-0.42</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.77</v>
+        <v>-0.75</v>
       </c>
       <c r="C26" t="n">
-        <v>-91.70999999999999</v>
+        <v>-87.62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.96</v>
+        <v>-0.86</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.27</v>
+        <v>-0.5</v>
       </c>
       <c r="C27" t="n">
-        <v>-92.59</v>
+        <v>-87.56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.96</v>
+        <v>-0.42</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.27</v>
+        <v>-0.75</v>
       </c>
       <c r="C28" t="n">
-        <v>-92.59</v>
+        <v>-87.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.43</v>
+        <v>-0.86</v>
       </c>
       <c r="B29" t="n">
         <v>-0.5</v>
       </c>
       <c r="C29" t="n">
-        <v>-93.19</v>
+        <v>-87.56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.01</v>
+        <v>-0.86</v>
       </c>
       <c r="B30" t="n">
-        <v>1.29</v>
+        <v>-0.5</v>
       </c>
       <c r="C30" t="n">
-        <v>-93.75</v>
+        <v>-87.56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.57</v>
+        <v>-0.43</v>
       </c>
       <c r="B31" t="n">
-        <v>3.61</v>
+        <v>-0.25</v>
       </c>
       <c r="C31" t="n">
-        <v>-94.12</v>
+        <v>-87.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.57</v>
+        <v>-0.42</v>
       </c>
       <c r="B32" t="n">
-        <v>3.61</v>
+        <v>-0.75</v>
       </c>
       <c r="C32" t="n">
-        <v>-94.12</v>
+        <v>-87.62</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>5.68</v>
+        <v>-0.49</v>
       </c>
       <c r="C33" t="n">
-        <v>-94.3</v>
+        <v>-87.75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>8.26</v>
+        <v>-0.49</v>
       </c>
       <c r="C34" t="n">
-        <v>-94.47</v>
+        <v>-87.75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.59</v>
+        <v>0.85</v>
       </c>
       <c r="B35" t="n">
-        <v>10.87</v>
+        <v>-0.49</v>
       </c>
       <c r="C35" t="n">
-        <v>-94.58</v>
+        <v>-87.94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.59</v>
+        <v>1.71</v>
       </c>
       <c r="B36" t="n">
-        <v>13.48</v>
+        <v>-0.99</v>
       </c>
       <c r="C36" t="n">
-        <v>-94.62</v>
+        <v>-88.44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.59</v>
+        <v>2.15</v>
       </c>
       <c r="B37" t="n">
-        <v>13.48</v>
+        <v>-1.24</v>
       </c>
       <c r="C37" t="n">
-        <v>-94.62</v>
+        <v>-89.06999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.59</v>
+        <v>2.6</v>
       </c>
       <c r="B38" t="n">
-        <v>16.09</v>
+        <v>-1.5</v>
       </c>
       <c r="C38" t="n">
-        <v>-94.59</v>
+        <v>-89.90000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.59</v>
+        <v>2.6</v>
       </c>
       <c r="B39" t="n">
-        <v>18.71</v>
+        <v>-1.5</v>
       </c>
       <c r="C39" t="n">
-        <v>-94.51000000000001</v>
+        <v>-89.90000000000001</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.58</v>
+        <v>2.6</v>
       </c>
       <c r="B40" t="n">
-        <v>21.33</v>
+        <v>-1.5</v>
       </c>
       <c r="C40" t="n">
-        <v>-94.34999999999999</v>
+        <v>-90.69</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.58</v>
+        <v>3.49</v>
       </c>
       <c r="B41" t="n">
-        <v>21.33</v>
+        <v>-1.51</v>
       </c>
       <c r="C41" t="n">
-        <v>-94.34999999999999</v>
+        <v>-91.66</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.57</v>
+        <v>4.41</v>
       </c>
       <c r="B42" t="n">
-        <v>23.95</v>
+        <v>-1.53</v>
       </c>
       <c r="C42" t="n">
-        <v>-94.13</v>
+        <v>-92.64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.57</v>
+        <v>4.41</v>
       </c>
       <c r="B43" t="n">
-        <v>26.11</v>
+        <v>-1.53</v>
       </c>
       <c r="C43" t="n">
-        <v>-94.11</v>
+        <v>-92.64</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.58</v>
+        <v>4.89</v>
       </c>
       <c r="B44" t="n">
-        <v>27.8</v>
+        <v>-1.8</v>
       </c>
       <c r="C44" t="n">
-        <v>-94.31</v>
+        <v>-93.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.01</v>
+        <v>5.38</v>
       </c>
       <c r="B45" t="n">
-        <v>29.28</v>
+        <v>-1.56</v>
       </c>
       <c r="C45" t="n">
-        <v>-94.59999999999999</v>
+        <v>-94.84999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4.01</v>
+        <v>5.88</v>
       </c>
       <c r="B46" t="n">
-        <v>29.28</v>
+        <v>-1.84</v>
       </c>
       <c r="C46" t="n">
-        <v>-94.59999999999999</v>
+        <v>-95.92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.48</v>
+        <v>5.94</v>
       </c>
       <c r="B47" t="n">
-        <v>29.79</v>
+        <v>-1.86</v>
       </c>
       <c r="C47" t="n">
-        <v>-95.22</v>
+        <v>-96.97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.49</v>
+        <v>5.94</v>
       </c>
       <c r="B48" t="n">
-        <v>30.06</v>
+        <v>-1.86</v>
       </c>
       <c r="C48" t="n">
-        <v>-96.01000000000001</v>
+        <v>-96.97</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.95</v>
+        <v>6</v>
       </c>
       <c r="B49" t="n">
-        <v>30.64</v>
+        <v>-1.87</v>
       </c>
       <c r="C49" t="n">
-        <v>-96.83</v>
+        <v>-98.01000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.98</v>
+        <v>6.05</v>
       </c>
       <c r="B50" t="n">
-        <v>30.92</v>
+        <v>-1.35</v>
       </c>
       <c r="C50" t="n">
-        <v>-97.61</v>
+        <v>-98.93000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.98</v>
+        <v>5.61</v>
       </c>
       <c r="B51" t="n">
-        <v>30.92</v>
+        <v>-1.08</v>
       </c>
       <c r="C51" t="n">
-        <v>-97.61</v>
+        <v>-99.73999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5.42</v>
+        <v>5.17</v>
       </c>
       <c r="B52" t="n">
-        <v>31.46</v>
+        <v>-0.28</v>
       </c>
       <c r="C52" t="n">
-        <v>-98.22</v>
+        <v>-100.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.52</v>
+        <v>5.17</v>
       </c>
       <c r="B53" t="n">
-        <v>32.75</v>
+        <v>-0.28</v>
       </c>
       <c r="C53" t="n">
-        <v>-98.45</v>
+        <v>-100.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.51</v>
+        <v>5.19</v>
       </c>
       <c r="B54" t="n">
-        <v>33.31</v>
+        <v>-0.28</v>
       </c>
       <c r="C54" t="n">
-        <v>-98.34999999999999</v>
+        <v>-100.82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.51</v>
+        <v>5.21</v>
       </c>
       <c r="B55" t="n">
-        <v>33.31</v>
+        <v>-0.28</v>
       </c>
       <c r="C55" t="n">
-        <v>-98.34999999999999</v>
+        <v>-101.24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4.51</v>
+        <v>7.61</v>
       </c>
       <c r="B56" t="n">
-        <v>33.31</v>
+        <v>-0.02</v>
       </c>
       <c r="C56" t="n">
-        <v>-98.34999999999999</v>
+        <v>-101.67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.51</v>
+        <v>7.61</v>
       </c>
       <c r="B57" t="n">
-        <v>33.31</v>
+        <v>-0.02</v>
       </c>
       <c r="C57" t="n">
-        <v>-98.34999999999999</v>
+        <v>-101.67</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4.51</v>
+        <v>9.07</v>
       </c>
       <c r="B58" t="n">
-        <v>33.31</v>
+        <v>0.22</v>
       </c>
       <c r="C58" t="n">
-        <v>-98.34999999999999</v>
+        <v>-102.12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.51</v>
+        <v>11.49</v>
       </c>
       <c r="B59" t="n">
-        <v>33.31</v>
+        <v>1.03</v>
       </c>
       <c r="C59" t="n">
-        <v>-98.34999999999999</v>
+        <v>-102.31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.51</v>
+        <v>12.46</v>
       </c>
       <c r="B60" t="n">
-        <v>33.31</v>
+        <v>2.14</v>
       </c>
       <c r="C60" t="n">
-        <v>-98.34999999999999</v>
+        <v>-102.54</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.52</v>
+        <v>12.94</v>
       </c>
       <c r="B61" t="n">
-        <v>32.83</v>
+        <v>3.52</v>
       </c>
       <c r="C61" t="n">
-        <v>-98.64</v>
+        <v>-102.73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4.98</v>
+        <v>12.94</v>
       </c>
       <c r="B62" t="n">
-        <v>32.58</v>
+        <v>3.52</v>
       </c>
       <c r="C62" t="n">
-        <v>-98.77</v>
+        <v>-102.73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.09</v>
+        <v>13.4</v>
       </c>
       <c r="B63" t="n">
-        <v>32.11</v>
+        <v>4.34</v>
       </c>
       <c r="C63" t="n">
-        <v>-99.09999999999999</v>
+        <v>-102.64</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.09</v>
+        <v>13.39</v>
       </c>
       <c r="B64" t="n">
-        <v>32.11</v>
+        <v>6.04</v>
       </c>
       <c r="C64" t="n">
-        <v>-99.09999999999999</v>
+        <v>-102.78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4.54</v>
+        <v>13.37</v>
       </c>
       <c r="B65" t="n">
-        <v>31.86</v>
+        <v>7.72</v>
       </c>
       <c r="C65" t="n">
-        <v>-99.23</v>
+        <v>-102.88</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.54</v>
+        <v>13.37</v>
       </c>
       <c r="B66" t="n">
-        <v>31.86</v>
+        <v>7.72</v>
       </c>
       <c r="C66" t="n">
-        <v>-99.23</v>
+        <v>-102.88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.54</v>
+        <v>12.87</v>
       </c>
       <c r="B67" t="n">
-        <v>31.86</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>-99.23</v>
+        <v>-102.92</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.54</v>
+        <v>11.88</v>
       </c>
       <c r="B68" t="n">
-        <v>31.86</v>
+        <v>12.57</v>
       </c>
       <c r="C68" t="n">
-        <v>-99.23</v>
+        <v>-102.88</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.54</v>
+        <v>10.9</v>
       </c>
       <c r="B69" t="n">
-        <v>31.86</v>
+        <v>14.27</v>
       </c>
       <c r="C69" t="n">
-        <v>-99.23</v>
+        <v>-102.78</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.54</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>31.86</v>
+        <v>15.74</v>
       </c>
       <c r="C70" t="n">
-        <v>-99.23</v>
+        <v>-102.78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.54</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="B71" t="n">
-        <v>31.86</v>
+        <v>15.74</v>
       </c>
       <c r="C71" t="n">
-        <v>-99.23</v>
+        <v>-102.78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.54</v>
+        <v>7.54</v>
       </c>
       <c r="B72" t="n">
-        <v>31.86</v>
+        <v>17.45</v>
       </c>
       <c r="C72" t="n">
-        <v>-99.23</v>
+        <v>-102.68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.54</v>
+        <v>5.17</v>
       </c>
       <c r="B73" t="n">
-        <v>31.86</v>
+        <v>18.9</v>
       </c>
       <c r="C73" t="n">
-        <v>-99.23</v>
+        <v>-102.64</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.54</v>
+        <v>2.35</v>
       </c>
       <c r="B74" t="n">
-        <v>31.86</v>
+        <v>19.53</v>
       </c>
       <c r="C74" t="n">
-        <v>-99.23</v>
+        <v>-102.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.54</v>
+        <v>2.35</v>
       </c>
       <c r="B75" t="n">
-        <v>31.86</v>
+        <v>19.53</v>
       </c>
       <c r="C75" t="n">
-        <v>-99.23</v>
+        <v>-102.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>31.62</v>
+        <v>19.26</v>
       </c>
       <c r="C76" t="n">
-        <v>-99.39</v>
+        <v>-102.85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.54</v>
+        <v>-2.84</v>
       </c>
       <c r="B77" t="n">
-        <v>31.86</v>
+        <v>19.25</v>
       </c>
       <c r="C77" t="n">
-        <v>-99.23</v>
+        <v>-102.81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.54</v>
+        <v>-5.18</v>
       </c>
       <c r="B78" t="n">
-        <v>31.86</v>
+        <v>18.96</v>
       </c>
       <c r="C78" t="n">
-        <v>-99.23</v>
+        <v>-102.85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.54</v>
+        <v>-7.09</v>
       </c>
       <c r="B79" t="n">
-        <v>31.86</v>
+        <v>17.8</v>
       </c>
       <c r="C79" t="n">
-        <v>-99.23</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4.09</v>
+        <v>-7.09</v>
       </c>
       <c r="B80" t="n">
-        <v>31.62</v>
+        <v>17.8</v>
       </c>
       <c r="C80" t="n">
-        <v>-99.39</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.54</v>
+        <v>-8.98</v>
       </c>
       <c r="B81" t="n">
-        <v>31.86</v>
+        <v>17.23</v>
       </c>
       <c r="C81" t="n">
-        <v>-99.23</v>
+        <v>-103.09</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4.09</v>
+        <v>-11.39</v>
       </c>
       <c r="B82" t="n">
-        <v>31.62</v>
+        <v>15.2</v>
       </c>
       <c r="C82" t="n">
-        <v>-99.39</v>
+        <v>-103.24</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>4.09</v>
+        <v>-12.86</v>
       </c>
       <c r="B83" t="n">
-        <v>31.62</v>
+        <v>13.77</v>
       </c>
       <c r="C83" t="n">
-        <v>-99.39</v>
+        <v>-103.41</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.09</v>
+        <v>-12.86</v>
       </c>
       <c r="B84" t="n">
-        <v>31.62</v>
+        <v>13.77</v>
       </c>
       <c r="C84" t="n">
-        <v>-99.39</v>
+        <v>-103.41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4.09</v>
+        <v>-14.33</v>
       </c>
       <c r="B85" t="n">
-        <v>31.62</v>
+        <v>11.74</v>
       </c>
       <c r="C85" t="n">
-        <v>-99.39</v>
+        <v>-103.53</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4.09</v>
+        <v>-15.42</v>
       </c>
       <c r="B86" t="n">
-        <v>31.62</v>
+        <v>8.32</v>
       </c>
       <c r="C86" t="n">
-        <v>-99.39</v>
+        <v>-103.91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>4.09</v>
+        <v>-15.5</v>
       </c>
       <c r="B87" t="n">
-        <v>31.62</v>
+        <v>5.48</v>
       </c>
       <c r="C87" t="n">
-        <v>-99.39</v>
+        <v>-104.15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4.09</v>
+        <v>-15.13</v>
       </c>
       <c r="B88" t="n">
-        <v>31.62</v>
+        <v>2.37</v>
       </c>
       <c r="C88" t="n">
-        <v>-99.39</v>
+        <v>-104.47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4.09</v>
+        <v>-15.13</v>
       </c>
       <c r="B89" t="n">
-        <v>31.62</v>
+        <v>2.37</v>
       </c>
       <c r="C89" t="n">
-        <v>-99.39</v>
+        <v>-104.47</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4.09</v>
+        <v>-14.74</v>
       </c>
       <c r="B90" t="n">
-        <v>31.62</v>
+        <v>-1.3</v>
       </c>
       <c r="C90" t="n">
-        <v>-99.39</v>
+        <v>-104.61</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4.09</v>
+        <v>-13.32</v>
       </c>
       <c r="B91" t="n">
-        <v>31.62</v>
+        <v>-4.37</v>
       </c>
       <c r="C91" t="n">
-        <v>-99.39</v>
+        <v>-104.64</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4.09</v>
+        <v>-11.88</v>
       </c>
       <c r="B92" t="n">
-        <v>31.62</v>
+        <v>-7.98</v>
       </c>
       <c r="C92" t="n">
-        <v>-99.39</v>
+        <v>-104.47</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.09</v>
+        <v>-10.44</v>
       </c>
       <c r="B93" t="n">
-        <v>31.62</v>
+        <v>-11</v>
       </c>
       <c r="C93" t="n">
-        <v>-99.39</v>
+        <v>-104.28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.09</v>
+        <v>-10.44</v>
       </c>
       <c r="B94" t="n">
-        <v>31.62</v>
+        <v>-11</v>
       </c>
       <c r="C94" t="n">
-        <v>-99.39</v>
+        <v>-104.28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4.09</v>
+        <v>-8.49</v>
       </c>
       <c r="B95" t="n">
-        <v>31.62</v>
+        <v>-13.73</v>
       </c>
       <c r="C95" t="n">
-        <v>-99.39</v>
+        <v>-104.2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4.09</v>
+        <v>-6.51</v>
       </c>
       <c r="B96" t="n">
-        <v>31.62</v>
+        <v>-16.47</v>
       </c>
       <c r="C96" t="n">
-        <v>-99.39</v>
+        <v>-104.03</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4.09</v>
+        <v>-4.52</v>
       </c>
       <c r="B97" t="n">
-        <v>31.62</v>
+        <v>-18.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-99.39</v>
+        <v>-103.87</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4.09</v>
+        <v>-4.52</v>
       </c>
       <c r="B98" t="n">
-        <v>31.62</v>
+        <v>-18.08</v>
       </c>
       <c r="C98" t="n">
-        <v>-99.39</v>
+        <v>-103.87</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4.09</v>
+        <v>-2.02</v>
       </c>
       <c r="B99" t="n">
-        <v>31.62</v>
+        <v>-19.44</v>
       </c>
       <c r="C99" t="n">
-        <v>-99.39</v>
+        <v>-103.84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4.09</v>
+        <v>0.52</v>
       </c>
       <c r="B100" t="n">
-        <v>31.62</v>
+        <v>-20.24</v>
       </c>
       <c r="C100" t="n">
-        <v>-99.39</v>
+        <v>-103.71</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4.09</v>
+        <v>3.53</v>
       </c>
       <c r="B101" t="n">
-        <v>31.62</v>
+        <v>-20.8</v>
       </c>
       <c r="C101" t="n">
-        <v>-99.39</v>
+        <v>-103.69</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4.09</v>
+        <v>6.56</v>
       </c>
       <c r="B102" t="n">
-        <v>31.62</v>
+        <v>-20.25</v>
       </c>
       <c r="C102" t="n">
-        <v>-99.39</v>
+        <v>-103.51</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.09</v>
+        <v>6.56</v>
       </c>
       <c r="B103" t="n">
-        <v>31.62</v>
+        <v>-20.25</v>
       </c>
       <c r="C103" t="n">
-        <v>-99.39</v>
+        <v>-103.51</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.09</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="B104" t="n">
-        <v>31.62</v>
+        <v>-18.94</v>
       </c>
       <c r="C104" t="n">
-        <v>-99.39</v>
+        <v>-103.65</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4.09</v>
+        <v>11.04</v>
       </c>
       <c r="B105" t="n">
-        <v>31.62</v>
+        <v>-17.86</v>
       </c>
       <c r="C105" t="n">
-        <v>-99.39</v>
+        <v>-103.58</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4.09</v>
+        <v>12.99</v>
       </c>
       <c r="B106" t="n">
-        <v>31.62</v>
+        <v>-15.7</v>
       </c>
       <c r="C106" t="n">
-        <v>-99.39</v>
+        <v>-103.56</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4.09</v>
+        <v>12.99</v>
       </c>
       <c r="B107" t="n">
-        <v>31.62</v>
+        <v>-15.7</v>
       </c>
       <c r="C107" t="n">
-        <v>-99.39</v>
+        <v>-103.56</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4.09</v>
+        <v>13.95</v>
       </c>
       <c r="B108" t="n">
-        <v>31.62</v>
+        <v>-14.07</v>
       </c>
       <c r="C108" t="n">
-        <v>-99.39</v>
+        <v>-103.67</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.09</v>
+        <v>15.4</v>
       </c>
       <c r="B109" t="n">
-        <v>31.62</v>
+        <v>-11.63</v>
       </c>
       <c r="C109" t="n">
-        <v>-99.39</v>
+        <v>-103.76</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4.09</v>
+        <v>16.82</v>
       </c>
       <c r="B110" t="n">
-        <v>31.62</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>-99.39</v>
+        <v>-103.91</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4.55</v>
+        <v>18.24</v>
       </c>
       <c r="B111" t="n">
-        <v>31.37</v>
+        <v>-6.14</v>
       </c>
       <c r="C111" t="n">
-        <v>-99.52</v>
+        <v>-103.84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.55</v>
+        <v>18.24</v>
       </c>
       <c r="B112" t="n">
-        <v>31.37</v>
+        <v>-6.14</v>
       </c>
       <c r="C112" t="n">
-        <v>-99.52</v>
+        <v>-103.84</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4.55</v>
+        <v>17.65</v>
       </c>
       <c r="B113" t="n">
-        <v>31.37</v>
+        <v>-2.49</v>
       </c>
       <c r="C113" t="n">
-        <v>-99.52</v>
+        <v>-104.01</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4.55</v>
+        <v>16.6</v>
       </c>
       <c r="B114" t="n">
-        <v>31.37</v>
+        <v>0.35</v>
       </c>
       <c r="C114" t="n">
-        <v>-99.52</v>
+        <v>-104.13</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4.55</v>
+        <v>15.56</v>
       </c>
       <c r="B115" t="n">
-        <v>31.37</v>
+        <v>4.34</v>
       </c>
       <c r="C115" t="n">
-        <v>-99.52</v>
+        <v>-104.27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.55</v>
+        <v>15.56</v>
       </c>
       <c r="B116" t="n">
-        <v>31.37</v>
+        <v>4.34</v>
       </c>
       <c r="C116" t="n">
-        <v>-99.52</v>
+        <v>-104.27</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4.55</v>
+        <v>14.5</v>
       </c>
       <c r="B117" t="n">
-        <v>31.37</v>
+        <v>7.22</v>
       </c>
       <c r="C117" t="n">
-        <v>-99.52</v>
+        <v>-104.19</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.09</v>
+        <v>12.51</v>
       </c>
       <c r="B118" t="n">
-        <v>30.55</v>
+        <v>10.11</v>
       </c>
       <c r="C118" t="n">
-        <v>-99.78</v>
+        <v>-104.14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4.09</v>
+        <v>10.52</v>
       </c>
       <c r="B119" t="n">
-        <v>30.55</v>
+        <v>13.01</v>
       </c>
       <c r="C119" t="n">
-        <v>-99.78</v>
+        <v>-103.97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4.09</v>
+        <v>9.06</v>
       </c>
       <c r="B120" t="n">
-        <v>30.55</v>
+        <v>15.02</v>
       </c>
       <c r="C120" t="n">
-        <v>-99.78</v>
+        <v>-103.77</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4.1</v>
+        <v>9.06</v>
       </c>
       <c r="B121" t="n">
-        <v>29.98</v>
+        <v>15.02</v>
       </c>
       <c r="C121" t="n">
-        <v>-99.87</v>
+        <v>-103.77</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4.11</v>
+        <v>7.11</v>
       </c>
       <c r="B122" t="n">
-        <v>29.39</v>
+        <v>17.32</v>
       </c>
       <c r="C122" t="n">
-        <v>-99.95999999999999</v>
+        <v>-103.44</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.66</v>
+        <v>5.21</v>
       </c>
       <c r="B123" t="n">
-        <v>28.01</v>
+        <v>18.46</v>
       </c>
       <c r="C123" t="n">
-        <v>-100.28</v>
+        <v>-103.29</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3.66</v>
+        <v>2.36</v>
       </c>
       <c r="B124" t="n">
-        <v>28.01</v>
+        <v>19.02</v>
       </c>
       <c r="C124" t="n">
-        <v>-100.28</v>
+        <v>-103.15</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>26.87</v>
+        <v>19.3</v>
       </c>
       <c r="C125" t="n">
-        <v>-100.43</v>
+        <v>-103.05</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.69</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>25.21</v>
+        <v>19.3</v>
       </c>
       <c r="C126" t="n">
-        <v>-100.84</v>
+        <v>-103.05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.7</v>
+        <v>-2.36</v>
       </c>
       <c r="B127" t="n">
-        <v>23.5</v>
+        <v>19.02</v>
       </c>
       <c r="C127" t="n">
-        <v>-101.01</v>
+        <v>-103.15</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.7</v>
+        <v>-4.72</v>
       </c>
       <c r="B128" t="n">
-        <v>23.5</v>
+        <v>18.74</v>
       </c>
       <c r="C128" t="n">
-        <v>-101.01</v>
+        <v>-103.19</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3.73</v>
+        <v>-7.57</v>
       </c>
       <c r="B129" t="n">
-        <v>21.25</v>
+        <v>17.58</v>
       </c>
       <c r="C129" t="n">
-        <v>-101.41</v>
+        <v>-103.29</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3.75</v>
+        <v>-7.57</v>
       </c>
       <c r="B130" t="n">
-        <v>18.44</v>
+        <v>17.58</v>
       </c>
       <c r="C130" t="n">
-        <v>-101.78</v>
+        <v>-103.29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>3.75</v>
+        <v>-9.49</v>
       </c>
       <c r="B131" t="n">
-        <v>16.21</v>
+        <v>16.4</v>
       </c>
       <c r="C131" t="n">
-        <v>-102.08</v>
+        <v>-103.39</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>3.77</v>
+        <v>-11.89</v>
       </c>
       <c r="B132" t="n">
-        <v>13.39</v>
+        <v>14.95</v>
       </c>
       <c r="C132" t="n">
-        <v>-102.32</v>
+        <v>-103.5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>3.77</v>
+        <v>-13.37</v>
       </c>
       <c r="B133" t="n">
-        <v>13.39</v>
+        <v>12.93</v>
       </c>
       <c r="C133" t="n">
-        <v>-102.32</v>
+        <v>-103.66</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>4.27</v>
+        <v>-14.42</v>
       </c>
       <c r="B134" t="n">
-        <v>10.3</v>
+        <v>10.05</v>
       </c>
       <c r="C134" t="n">
-        <v>-102.57</v>
+        <v>-103.9</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.82</v>
+        <v>-14.42</v>
       </c>
       <c r="B135" t="n">
-        <v>7.81</v>
+        <v>10.05</v>
       </c>
       <c r="C135" t="n">
-        <v>-102.79</v>
+        <v>-103.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>3.83</v>
+        <v>-15.45</v>
       </c>
       <c r="B136" t="n">
-        <v>5</v>
+        <v>7.77</v>
       </c>
       <c r="C136" t="n">
-        <v>-102.82</v>
+        <v>-104.09</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.83</v>
+        <v>-15.56</v>
       </c>
       <c r="B137" t="n">
-        <v>5</v>
+        <v>4.34</v>
       </c>
       <c r="C137" t="n">
-        <v>-102.82</v>
+        <v>-104.27</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3.83</v>
+        <v>-15.63</v>
       </c>
       <c r="B138" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="C138" t="n">
-        <v>-102.92</v>
+        <v>-104.41</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3.86</v>
+        <v>-15.63</v>
       </c>
       <c r="B139" t="n">
-        <v>-2.23</v>
+        <v>1.5</v>
       </c>
       <c r="C139" t="n">
-        <v>-102.84</v>
+        <v>-104.41</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>4.34</v>
+        <v>-15.24</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.82</v>
+        <v>-2.15</v>
       </c>
       <c r="C140" t="n">
-        <v>-102.76</v>
+        <v>-104.53</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4.38</v>
+        <v>-13.82</v>
       </c>
       <c r="B141" t="n">
-        <v>-9.66</v>
+        <v>-5.77</v>
       </c>
       <c r="C141" t="n">
-        <v>-102.62</v>
+        <v>-104.45</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4.38</v>
+        <v>-12.38</v>
       </c>
       <c r="B142" t="n">
-        <v>-9.66</v>
+        <v>-8.81</v>
       </c>
       <c r="C142" t="n">
-        <v>-102.62</v>
+        <v>-104.35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>4.88</v>
+        <v>-10.94</v>
       </c>
       <c r="B143" t="n">
-        <v>-14.82</v>
+        <v>-11.83</v>
       </c>
       <c r="C143" t="n">
-        <v>-102.08</v>
+        <v>-104.14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>4.91</v>
+        <v>-10.94</v>
       </c>
       <c r="B144" t="n">
-        <v>-20.73</v>
+        <v>-11.83</v>
       </c>
       <c r="C144" t="n">
-        <v>-101.37</v>
+        <v>-104.14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5.92</v>
+        <v>-8.99</v>
       </c>
       <c r="B145" t="n">
-        <v>-27.54</v>
+        <v>-14.55</v>
       </c>
       <c r="C145" t="n">
-        <v>-100.1</v>
+        <v>-104.06</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5.95</v>
+        <v>-7.01</v>
       </c>
       <c r="B146" t="n">
-        <v>-34.12</v>
+        <v>-16.71</v>
       </c>
       <c r="C146" t="n">
-        <v>-98.47</v>
+        <v>-103.81</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5.95</v>
+        <v>-5.02</v>
       </c>
       <c r="B147" t="n">
-        <v>-34.12</v>
+        <v>-18.33</v>
       </c>
       <c r="C147" t="n">
-        <v>-98.47</v>
+        <v>-103.66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5.47</v>
+        <v>-2.52</v>
       </c>
       <c r="B148" t="n">
-        <v>-37.83</v>
+        <v>-19.69</v>
       </c>
       <c r="C148" t="n">
-        <v>-97.39</v>
+        <v>-103.65</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4.98</v>
+        <v>-2.52</v>
       </c>
       <c r="B149" t="n">
-        <v>-39.5</v>
+        <v>-19.69</v>
       </c>
       <c r="C149" t="n">
-        <v>-96.83</v>
+        <v>-103.65</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4.99</v>
+        <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>-40.47</v>
+        <v>-21.06</v>
       </c>
       <c r="C150" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.55</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4.99</v>
+        <v>3.53</v>
       </c>
       <c r="B151" t="n">
-        <v>-40.47</v>
+        <v>-21.33</v>
       </c>
       <c r="C151" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.51</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>4.99</v>
+        <v>6.06</v>
       </c>
       <c r="B152" t="n">
-        <v>-40.47</v>
+        <v>-21.06</v>
       </c>
       <c r="C152" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.38</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>4.99</v>
+        <v>6.06</v>
       </c>
       <c r="B153" t="n">
-        <v>-40.47</v>
+        <v>-21.06</v>
       </c>
       <c r="C153" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.38</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>4.99</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="B154" t="n">
-        <v>-40.47</v>
+        <v>-20.26</v>
       </c>
       <c r="C154" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.29</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4.99</v>
+        <v>11.54</v>
       </c>
       <c r="B155" t="n">
-        <v>-40.47</v>
+        <v>-18.67</v>
       </c>
       <c r="C155" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.39</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>4.99</v>
+        <v>13</v>
       </c>
       <c r="B156" t="n">
-        <v>-40.47</v>
+        <v>-16.79</v>
       </c>
       <c r="C156" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.47</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>4.99</v>
+        <v>14.46</v>
       </c>
       <c r="B157" t="n">
-        <v>-40.47</v>
+        <v>-14.89</v>
       </c>
       <c r="C157" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.49</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4.99</v>
+        <v>14.46</v>
       </c>
       <c r="B158" t="n">
-        <v>-40.47</v>
+        <v>-14.89</v>
       </c>
       <c r="C158" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.49</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>4.99</v>
+        <v>16.37</v>
       </c>
       <c r="B159" t="n">
-        <v>-40.47</v>
+        <v>-12.18</v>
       </c>
       <c r="C159" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.49</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4.99</v>
+        <v>17.32</v>
       </c>
       <c r="B160" t="n">
-        <v>-40.47</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.76</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4.99</v>
+        <v>18.24</v>
       </c>
       <c r="B161" t="n">
-        <v>-40.47</v>
+        <v>-6.14</v>
       </c>
       <c r="C161" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.84</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4.99</v>
+        <v>18.24</v>
       </c>
       <c r="B162" t="n">
-        <v>-40.47</v>
+        <v>-6.14</v>
       </c>
       <c r="C162" t="n">
-        <v>-96.51000000000001</v>
+        <v>-103.84</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>4.99</v>
+        <v>18.15</v>
       </c>
       <c r="B163" t="n">
-        <v>-40.47</v>
+        <v>-2.79</v>
       </c>
       <c r="C163" t="n">
-        <v>-96.51000000000001</v>
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-104.13</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-104.22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-104.34</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-104.34</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="B168" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-104.28</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="B169" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-103.97</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-103.77</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="B171" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-103.52</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="B172" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-103.52</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="B173" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-103.43</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="B174" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-103.15</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0</v>
+      </c>
+      <c r="B175" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-103.05</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-103.05</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="B177" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-103.02</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="B178" t="n">
+        <v>19</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-103.05</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-7.57</v>
+      </c>
+      <c r="B179" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-103.29</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-7.57</v>
+      </c>
+      <c r="B180" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-103.29</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-9.49</v>
+      </c>
+      <c r="B181" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-103.39</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="B182" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-103.44</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-12.89</v>
+      </c>
+      <c r="B183" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-103.61</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-14.87</v>
+      </c>
+      <c r="B184" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-103.76</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-15.91</v>
+      </c>
+      <c r="B185" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-103.9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-15.91</v>
+      </c>
+      <c r="B186" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-103.9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-15.56</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-104.27</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-15.63</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-104.41</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-104.53</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-104.53</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-5.49</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-104.33</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-12.87</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-8.529999999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-104.24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-11.42</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-11.55</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-104.05</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-9.470000000000001</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-14.28</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-103.98</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-9.470000000000001</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-14.28</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-103.98</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-7.01</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-16.71</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-103.81</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-18.33</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-103.66</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-19.69</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-103.65</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-19.69</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-103.65</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-21.06</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-103.55</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-21.05</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-103.51</v>
       </c>
     </row>
   </sheetData>
